--- a/statistics/HistoricalDistanceData/historical_distance/Q460143-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q460143-en.xlsx
@@ -31,27 +31,27 @@
     <t>uri</t>
   </si>
   <si>
+    <t>His Life and Times: Albert E. Castel: 9780806130811: Amazon.com: Books</t>
+  </si>
+  <si>
     <t>63 Roster of of the Victims of the Lawrence Raid Published on the 147th Anniversary.</t>
   </si>
   <si>
-    <t>His Life and Times: Albert E. Castel: 9780806130811: Amazon.com: Books</t>
+    <t>Guerilla Operations in the Trans-Mississippi</t>
+  </si>
+  <si>
+    <t>H.M. Simpson to Hiram Hill</t>
   </si>
   <si>
     <t>Quantrill and the border wars</t>
   </si>
   <si>
-    <t>Guerilla Operations in the Trans-Mississippi</t>
-  </si>
-  <si>
-    <t>H.M. Simpson to Hiram Hill</t>
+    <t>2015-07-22T00:00:00UTC</t>
   </si>
   <si>
     <t>2020-09-27T00:00:00UTC</t>
   </si>
   <si>
-    <t>2015-07-22T00:00:00UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
@@ -61,19 +61,19 @@
     <t>day_31_beyond</t>
   </si>
   <si>
+    <t>https://www.amazon.com/William-Clarke-Quantrill-Life-Times/dp/0806130814/</t>
+  </si>
+  <si>
     <t>http://quantrillsguerrillas.com/en/articles/126-t-charles-edwin-wells.html</t>
   </si>
   <si>
-    <t>https://www.amazon.com/William-Clarke-Quantrill-Life-Times/dp/0806130814/</t>
+    <t>http://stellar-one.com/guerilla/</t>
+  </si>
+  <si>
+    <t>http://www.kansasmemory.org/item/213271</t>
   </si>
   <si>
     <t>https://archive.org/details/quantrillborderw00connuoft</t>
-  </si>
-  <si>
-    <t>http://stellar-one.com/guerilla/</t>
-  </si>
-  <si>
-    <t>http://www.kansasmemory.org/item/213271</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>57381</v>
+        <v>55487</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -492,7 +492,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>55487</v>
+        <v>57381</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
